--- a/Dataset/Folds/Fold_1/Excel/89.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/89.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7463" uniqueCount="892">
   <si>
     <t>Doi</t>
   </si>
@@ -2866,6 +2866,108 @@
   </si>
   <si>
     <t>[Ahmad%Jabbar%coreGivesNoEmail%1,                          Alaa%Boulad%coreGivesNoEmail%1,                          Anand%Irimpen%coreGivesNoEmail%1,                          Bradley%Deere%coreGivesNoEmail%1,                          Christopher%Westley%coreGivesNoEmail%1,                          Hassan%Baydoun%coreGivesNoEmail%1,                          Holly%Gonzales%coreGivesNoEmail%1,                          Indrajeet%Mahata%coreGivesNoEmail%1,                          John%C. Moscona%coreGivesNoEmail%1,                          Kapil%Yadav%coreGivesNoEmail%1,                          Matthew%N. Peters%coreGivesNoEmail%1,                          Patrick%Ters%coreGivesNoEmail%1,                          Paul%Katigbak%coreGivesNoEmail%1,                          Rohit%Maini%coreGivesNoEmail%1,                          Ryan%Nelson%coreGivesNoEmail%1,                          Sudesh%Srivastav%coreGivesNoEmail%1,                          Taraka%V. Gadiraju%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                            Alan%Cohen%NULL%1,                            Josiane%Courteau%NULL%1,                            Patrick%Bergeron%NULL%1,                            Roxanne%Dault%NULL%1,                            Pierre%Gosselin%NULL%1,                            Claudia%Blais%NULL%1,                            Diane%Bélanger%NULL%1,                            Louis%Rochette%NULL%1,                            Fateh%Chebana%NULL%1,                            Jan%Semenza%NULL%2,                            Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                            Elena N.%Naumova%NULL%1,                            Gitanjali%Singh%NULL%1,                            Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                            Steven D.%Stellman%NULL%1,                            Alfredo%Morabia%NULL%1,                            Sara A.%Miller‐Archie%NULL%1,                            Howard%Alper%NULL%1,                            Zoey%Laskaris%NULL%1,                            Robert M.%Brackbill%NULL%1,                            James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                            Hayden%Smith%NULL%1,                            Nitesh%Kuhadiya%NULL%1,                            Sharice M.%Leger%NULL%1,                            C. Lillian%Yau%NULL%1,                            Kristi%Reynolds%NULL%1,                            Lizheng%Shi%NULL%1,                            Roberta H.%McDuffie%NULL%1,                            Tina%Thethi%NULL%1,                            Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                            La Ngoc%Quang%NULL%1,                            Le Thi%Thanh Ha%NULL%1,                            Tran Thi%Duc Hanh%NULL%1,                            Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                            Dena%Javadi%NULL%2,                            Dena%Javadi%NULL%0,                            Katrina%Hann%NULL%5,                            Anthony D%Harries%NULL%2,                            Anthony D%Harries%NULL%0,                            Francis%Smart%NULL%2,                            Francis%Smart%NULL%0,                            Thomas%Samba%NULL%1,                            Jeffery%Edwards%NULL%4,                            Jeffery%Edwards%NULL%0,                            Priyakanta%Nayak%NULL%2,                            Priyakanta%Nayak%NULL%0,                            Katrina%Hann%NULL%0,                            Katrina%Hann%NULL%0,                            Jeffery%Edwards%NULL%0,                            Jeffery%Edwards%NULL%0,                            Katrina%Hann%NULL%0,                            Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%1,                             Alan%Cohen%NULL%1,                             Josiane%Courteau%NULL%1,                             Patrick%Bergeron%NULL%1,                             Roxanne%Dault%NULL%1,                             Pierre%Gosselin%NULL%1,                             Claudia%Blais%NULL%1,                             Diane%Bélanger%NULL%1,                             Louis%Rochette%NULL%1,                             Fateh%Chebana%NULL%1,                             Jan%Semenza%NULL%2,                             Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%1,                             Elena N.%Naumova%NULL%1,                             Gitanjali%Singh%NULL%1,                             Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%1,                             Steven D.%Stellman%NULL%1,                             Alfredo%Morabia%NULL%1,                             Sara A.%Miller‐Archie%NULL%1,                             Howard%Alper%NULL%1,                             Zoey%Laskaris%NULL%1,                             Robert M.%Brackbill%NULL%1,                             James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%1,                             Hayden%Smith%NULL%1,                             Nitesh%Kuhadiya%NULL%1,                             Sharice M.%Leger%NULL%1,                             C. Lillian%Yau%NULL%1,                             Kristi%Reynolds%NULL%1,                             Lizheng%Shi%NULL%1,                             Roberta H.%McDuffie%NULL%1,                             Tina%Thethi%NULL%1,                             Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%1,                             La Ngoc%Quang%NULL%1,                             Le Thi%Thanh Ha%NULL%1,                             Tran Thi%Duc Hanh%NULL%1,                             Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%1,                             Dena%Javadi%NULL%2,                             Dena%Javadi%NULL%0,                             Katrina%Hann%NULL%5,                             Anthony D%Harries%NULL%2,                             Anthony D%Harries%NULL%0,                             Francis%Smart%NULL%2,                             Francis%Smart%NULL%0,                             Thomas%Samba%NULL%1,                             Jeffery%Edwards%NULL%4,                             Jeffery%Edwards%NULL%0,                             Priyakanta%Nayak%NULL%2,                             Priyakanta%Nayak%NULL%0,                             Katrina%Hann%NULL%0,                             Katrina%Hann%NULL%0,                             Jeffery%Edwards%NULL%0,                             Jeffery%Edwards%NULL%0,                             Katrina%Hann%NULL%0,                             Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Floods represent a serious threat to human health beyond the immediate risk of drowning.
+ There is few data on the potential link between floods and direct consequences on health such as on cardiovascular health.
+ This study aimed to explore the impact of one of the worst floods in the history of Quebec, Canada on acute cardiovascular diseases (CVD).
+ Methods: A cohort study with a time series design with multiple control groups was built with the adult population identified in the Quebec Integrated Chronic Disease Surveillance System.
+ A geographic information system approach was used to define the study areas.
+ Logistic regressions were performed to compare the occurrence of CVD between groups.
+ Results: The results showed a 25%–27% increase in the odds in the flooded population in spring 2011 when compared with the population in the same area in springs 2010 and 2012. Besides, an increase up to 69% was observed in individuals with a medical history of CVD.
+ Conclusion: Despite interesting results, the association was not statistically significant.
+ A possible explanation to this result can be that the population affected by the flood was probably too small to provide the statistical power to answer the question, and leaves open a substantial possibility for a real and large effect.
+</t>
+  </si>
+  <si>
+    <t>[Alain%Vanasse%NULL%0, Alan%Cohen%NULL%1, Josiane%Courteau%NULL%1, Patrick%Bergeron%NULL%1, Roxanne%Dault%NULL%1, Pierre%Gosselin%NULL%1, Claudia%Blais%NULL%1, Diane%Bélanger%NULL%1, Louis%Rochette%NULL%1, Fateh%Chebana%NULL%1, Jan%Semenza%NULL%2, Jan%Semenza%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The research on how health and health care disparities impact response to and recovery from a disaster, especially among diverse and underserved populations is in great need for a thorough evaluation.
+ The time series analysis utilizing most complete national databases of medical records is an indispensable tool in assessing the destruction and health toll brought about by natural disasters.
+ In this study, we demonstrated such an application by evaluating the impact of Hurricane Katrina in 2005 on cardiovascular disease (CVD), a primary cause of mortality among older adults that can be aggravated by natural disasters.
+ We compared CVD hospitalizations before, during and after Katrina between white and black residents of three most populated parishes in Louisiana: Orleans and Jefferson, which were severely affected by the landfall and subsequent floods, and East Baton Rouge, which hosted many of the evacuees.
+ We abstracted 383,552 CVD hospitalization records for Louisiana’s patients aged 65+ in 2005–2006 from the database maintained by the Center of Medicare &amp;amp; Medicaid Services.
+ Daily time series of CVD-related hospitalization rates at each study parish were compiled, and the changes were characterized using segmented regression.
+ In Orleans Parish, directly affected by the hurricane, hospitalization rates peaked on the 6th day after landfall with an increase (mean ± SD) from 7.25 ± 2.4 to 18.5 ± 17.3 cases/day per 10,000 adults aged 65+ (p &amp;lt; 0.001) and returned to pre-landfall level after ~2 months.
+ Disparities in CVD rates between black and white older adults were exacerbated during and following landfall.
+ In Orleans Parish, a week after landfall, the CVD rates increased to 26.3 ± 23.7 and 16.6 ± 11.7 cases/day per 10,000 people (p &amp;lt; 0.001) for black and white patients, respectively.
+ The abrupt increase in CVDs is likely due to psychosocial and post-traumatic stress caused by the disaster and inadequate response.
+ Inequities in resource allocation and access have to be addressed in disaster preparation and mitigation.
+</t>
+  </si>
+  <si>
+    <t>[Ninon A.%Becquart%NULL%0, Elena N.%Naumova%NULL%1, Gitanjali%Singh%NULL%1, Kenneth K. H.%Chui%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hannah T.%Jordan%NULL%0, Steven D.%Stellman%NULL%1, Alfredo%Morabia%NULL%1, Sara A.%Miller‐Archie%NULL%1, Howard%Alper%NULL%1, Zoey%Laskaris%NULL%1, Robert M.%Brackbill%NULL%1, James E.%Cone%NULL%1]</t>
+  </si>
+  <si>
+    <t>Blackwell Publishing Ltd</t>
+  </si>
+  <si>
+    <t>[Vivian A.%Fonseca%NULL%0, Hayden%Smith%NULL%1, Nitesh%Kuhadiya%NULL%1, Sharice M.%Leger%NULL%1, C. Lillian%Yau%NULL%1, Kristi%Reynolds%NULL%1, Lizheng%Shi%NULL%1, Roberta H.%McDuffie%NULL%1, Tina%Thethi%NULL%1, Jennifer%John-Kalarickal%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Diabetes Association</t>
+  </si>
+  <si>
+    <t>[Tran Huu%Bich%NULL%0, La Ngoc%Quang%NULL%1, Le Thi%Thanh Ha%NULL%1, Tran Thi%Duc Hanh%NULL%1, Debarati%Guha-Sapir%NULL%1]</t>
+  </si>
+  <si>
+    <t>CoAction Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Background: Non-communicable diseases (NCDs) are the leading causes of morbidity and mortality in the world.
+ During infectious disease outbreaks, such as the Ebola virus disease outbreak in West Africa from 2014-2015, the health system is often strained, and diagnosis, management and care of NCDs may be compromised.
+ This study assessed numbers and distribution of NCDs in all health facilities in the Western-Area District, Sierra Leone, in the post-Ebola period (June–December 2015) comparing findings with the pre-Ebola (June–December 2013) and Ebola outbreak (June–December 2014) periods.
+</t>
+  </si>
+  <si>
+    <t>[Ibrahim Baimba%Koroma%NULL%0, Dena%Javadi%NULL%2, Dena%Javadi%NULL%0, Katrina%Hann%NULL%5, Anthony D%Harries%NULL%2, Anthony D%Harries%NULL%0, Francis%Smart%NULL%2, Francis%Smart%NULL%0, Thomas%Samba%NULL%1, Jeffery%Edwards%NULL%4, Jeffery%Edwards%NULL%0, Priyakanta%Nayak%NULL%2, Priyakanta%Nayak%NULL%0, Katrina%Hann%NULL%0, Katrina%Hann%NULL%0, Jeffery%Edwards%NULL%0, Jeffery%Edwards%NULL%0, Katrina%Hann%NULL%0, Katrina%Hann%NULL%0]</t>
+  </si>
+  <si>
+    <t>F1000 Research Limited</t>
   </si>
 </sst>
 </file>
@@ -3200,25 +3302,25 @@
         <v>42036.0</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>845</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
         <v>183</v>
@@ -3232,28 +3334,28 @@
         <v>43497.0</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
         <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>702</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -3267,10 +3369,10 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>878</v>
       </c>
       <c r="E4" t="s">
-        <v>846</v>
+        <v>879</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -3282,10 +3384,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>635</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5">
@@ -3296,25 +3398,25 @@
         <v>43101.0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>847</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J5" t="s">
         <v>183</v>
@@ -3331,10 +3433,10 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>881</v>
       </c>
       <c r="E6" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -3346,10 +3448,10 @@
         <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>635</v>
+        <v>183</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7">
@@ -3366,7 +3468,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
@@ -3378,10 +3480,10 @@
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>635</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8">
@@ -3392,28 +3494,28 @@
         <v>43556.0</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>482</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>702</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
@@ -3424,25 +3526,25 @@
         <v>40725.0</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>850</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
         <v>183</v>
@@ -3456,25 +3558,25 @@
         <v>40725.0</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>851</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
         <v>183</v>
@@ -3488,28 +3590,28 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>711</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
@@ -3520,25 +3622,25 @@
         <v>40954.0</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>852</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J12" t="s">
         <v>183</v>
@@ -3552,28 +3654,28 @@
         <v>40087.0</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>714</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
         <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>702</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
@@ -3584,25 +3686,25 @@
         <v>42036.0</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>853</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
         <v>183</v>
@@ -3616,25 +3718,25 @@
         <v>40878.0</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>854</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
         <v>183</v>
@@ -3648,28 +3750,28 @@
         <v>42948.0</v>
       </c>
       <c r="C16" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
         <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>718</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
@@ -3686,7 +3788,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -3698,10 +3800,10 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>635</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18">
@@ -3712,25 +3814,25 @@
         <v>42309.0</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>856</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
         <v>183</v>
@@ -3750,7 +3852,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3762,10 +3864,10 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>635</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20">
@@ -3776,25 +3878,25 @@
         <v>2011.0</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>858</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
         <v>183</v>
@@ -3808,25 +3910,25 @@
         <v>40789.0</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>859</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
         <v>183</v>
@@ -3840,28 +3942,28 @@
         <v>35261.0</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>496</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>725</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
         <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>726</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
@@ -3872,25 +3974,25 @@
         <v>41348.0</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>860</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
         <v>183</v>
@@ -3907,10 +4009,10 @@
         <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>889</v>
       </c>
       <c r="E24" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="F24" t="s">
         <v>124</v>
@@ -3922,10 +4024,10 @@
         <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>635</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25">
@@ -3936,28 +4038,28 @@
         <v>42125.0</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>499</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
         <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>730</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
@@ -3968,28 +4070,28 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
         <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>731</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
@@ -4000,28 +4102,28 @@
         <v>43313.0</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
         <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>711</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -4032,28 +4134,28 @@
         <v>38384.0</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
         <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>711</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
@@ -4064,25 +4166,25 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>862</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -4096,28 +4198,28 @@
         <v>40664.0</v>
       </c>
       <c r="C30" t="s">
-        <v>661</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>863</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>736</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
         <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>737</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31">
@@ -4128,25 +4230,25 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>864</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
         <v>183</v>
@@ -4160,25 +4262,25 @@
         <v>43556.0</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>865</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>632</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
         <v>183</v>
@@ -4192,28 +4294,28 @@
         <v>40422.0</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>506</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
         <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>702</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
